--- a/stage2_excels/SP/SP_kfold_two.xlsx
+++ b/stage2_excels/SP/SP_kfold_two.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -488,43 +488,43 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4997591388388036</v>
+        <v>0.499759138838808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hsv_h_mean</t>
+          <t>lab_l_median</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>lab_b_median</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4926273678390275</v>
+        <v>0.4734648715218488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4734648715218488</v>
+        <v>0.4718170958954712</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>lab_l_median</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4718170958954765</v>
+        <v>0.4641433665459337</v>
       </c>
     </row>
   </sheetData>
